--- a/Multi_Cloud_Comparison.xlsx
+++ b/Multi_Cloud_Comparison.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003RC7744\Desktop\Technical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003RC7744\Desktop\Old Laptop Backup\Technical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C218B-27B3-4176-BA46-B71E1D2AC0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEADC55F-E51A-42A0-8267-908C5CF1DBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="3" xr2:uid="{D4124966-89E9-4423-87FB-01B439891BF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="866" activeTab="2" xr2:uid="{D4124966-89E9-4423-87FB-01B439891BF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generic(IAM)" sheetId="1" r:id="rId1"/>
+    <sheet name="Generic(IAM) &amp; Other Services" sheetId="1" r:id="rId1"/>
     <sheet name="Network" sheetId="3" r:id="rId2"/>
     <sheet name="Compute" sheetId="4" r:id="rId3"/>
-    <sheet name="Storage" sheetId="2" r:id="rId4"/>
-    <sheet name="Operations" sheetId="6" r:id="rId5"/>
-    <sheet name="Security" sheetId="5" r:id="rId6"/>
+    <sheet name="Storage &amp; Migration" sheetId="2" r:id="rId4"/>
+    <sheet name="Databases &amp; Data Analytics" sheetId="7" r:id="rId5"/>
+    <sheet name="ML &amp; AI" sheetId="8" r:id="rId6"/>
+    <sheet name="Operations" sheetId="6" r:id="rId7"/>
+    <sheet name="Security" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="553">
   <si>
     <t>AWS</t>
   </si>
@@ -109,9 +111,6 @@
     <t>Subnet scope</t>
   </si>
   <si>
-    <t>Compute</t>
-  </si>
-  <si>
     <t>EC2</t>
   </si>
   <si>
@@ -128,9 +127,6 @@
   </si>
   <si>
     <t>AZ level</t>
-  </si>
-  <si>
-    <t>Resilency(need to check what happens during hardware failures)</t>
   </si>
   <si>
     <t>category</t>
@@ -191,9 +187,6 @@
     </r>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>EBS</t>
   </si>
   <si>
@@ -215,9 +208,6 @@
     <t>AMI</t>
   </si>
   <si>
-    <t>creating image</t>
-  </si>
-  <si>
     <t>connecting to instance</t>
   </si>
   <si>
@@ -711,9 +701,6 @@
   </si>
   <si>
     <t>At Firewall(VPC Level). Default Off</t>
-  </si>
-  <si>
-    <t>only captures metadata, not actaul data. Not real time. Monitors can be attached at VPC(all ENIs), subnets(all ENIs) and ENI level. Can be sent to S3/CloudWatch Logs.</t>
   </si>
   <si>
     <t>set at Subnet Level(default off). Captures everything at given sampling rate(%).</t>
@@ -1585,12 +1572,819 @@
   <si>
     <t>stored in S3. Incremental</t>
   </si>
+  <si>
+    <t xml:space="preserve">         - encryption</t>
+  </si>
+  <si>
+    <t>default not encrypted</t>
+  </si>
+  <si>
+    <t>Zonal/Region</t>
+  </si>
+  <si>
+    <t>does not support plain text storage. Have to encrypt ir</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ </t>
+  </si>
+  <si>
+    <t>Resilency</t>
+  </si>
+  <si>
+    <t>Compute(IAAS)</t>
+  </si>
+  <si>
+    <t>userdata</t>
+  </si>
+  <si>
+    <t>startup scripts or via metadata</t>
+  </si>
+  <si>
+    <t>bootstraping instance</t>
+  </si>
+  <si>
+    <t>Access Permissions for Instances</t>
+  </si>
+  <si>
+    <t>Via Instance Role)profile)</t>
+  </si>
+  <si>
+    <t>Via Service Accounts</t>
+  </si>
+  <si>
+    <t>category(General Purpose,Compute Optimized,Memory Optimized,Accelerated Computing, Storage Optimized), Instance Family,Instance Type</t>
+  </si>
+  <si>
+    <t>Store Configuration and Secrets</t>
+  </si>
+  <si>
+    <t>AWS Secrets Manager, AWS Systems Manager Parameter Store</t>
+  </si>
+  <si>
+    <t>Secret Manager</t>
+  </si>
+  <si>
+    <t>Requires CloudWatch Agent</t>
+  </si>
+  <si>
+    <t>Needs OpsAgent</t>
+  </si>
+  <si>
+    <t>System and Application logging of Instance</t>
+  </si>
+  <si>
+    <t>infrastructure isolation</t>
+  </si>
+  <si>
+    <t>Placement Groups</t>
+  </si>
+  <si>
+    <t>Dedicated infrastructure</t>
+  </si>
+  <si>
+    <t>Dedicated Host, Dedicated Instance</t>
+  </si>
+  <si>
+    <t>sole tenant nodes.(dedicated for project)</t>
+  </si>
+  <si>
+    <t>Virtualization aware network interface</t>
+  </si>
+  <si>
+    <t>Enhanced Networking</t>
+  </si>
+  <si>
+    <t>Optimized storage networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS optimized </t>
+  </si>
+  <si>
+    <t>Block Storage</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>File Server</t>
+  </si>
+  <si>
+    <t>Cloud SQL</t>
+  </si>
+  <si>
+    <t>service Name</t>
+  </si>
+  <si>
+    <t>supported databases</t>
+  </si>
+  <si>
+    <t>MySQL,MariaDB,Postgress,Oracle,SQL Server</t>
+  </si>
+  <si>
+    <t>Relational DB Server as Managed Service</t>
+  </si>
+  <si>
+    <t>RDS(private service)</t>
+  </si>
+  <si>
+    <t>HA and failover</t>
+  </si>
+  <si>
+    <t>Read Replicas</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Maintenace</t>
+  </si>
+  <si>
+    <t>Backups(/snapshots)</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Aurora Serverless</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Multi Master Writes</t>
+  </si>
+  <si>
+    <t>RDS Proxy</t>
+  </si>
+  <si>
+    <t>AWS DMS</t>
+  </si>
+  <si>
+    <t>Database Migration Service</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Schema Conversion</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>Managed NFS Server</t>
+  </si>
+  <si>
+    <t>FSx Windows File Server</t>
+  </si>
+  <si>
+    <t>FSx for Windows</t>
+  </si>
+  <si>
+    <t>File System for HPC</t>
+  </si>
+  <si>
+    <t>FSx for Lustre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - seggrategated management</t>
+  </si>
+  <si>
+    <t>S3 Access Points</t>
+  </si>
+  <si>
+    <t>Data Security</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention</t>
+  </si>
+  <si>
+    <t>AWS Macie(supports only S3 buckets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Migration as a Managed Service </t>
+  </si>
+  <si>
+    <t>Centralized backup &amp; Restore</t>
+  </si>
+  <si>
+    <t>AWS Backup</t>
+  </si>
+  <si>
+    <t>Connection Pool/Resilent DB Connection mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed File Transfer Service </t>
+  </si>
+  <si>
+    <t>AWS Transfer family to S3/EFS</t>
+  </si>
+  <si>
+    <t>purchase options/billing discounts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">known as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Launch Types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1.On Demand(default), 2.Spot, 3.Resereved , 4.Dedicated Host, 5.Dedicated Instance.      </t>
+    </r>
+  </si>
+  <si>
+    <t>Auto scale</t>
+  </si>
+  <si>
+    <t>Bridge between onprem and Cloud storage</t>
+  </si>
+  <si>
+    <t>Storage Gateway Volume Stored, Volume cached</t>
+  </si>
+  <si>
+    <t>Storage Gateway Tape(VTL)</t>
+  </si>
+  <si>
+    <t>Tape Storage</t>
+  </si>
+  <si>
+    <t>File Storage</t>
+  </si>
+  <si>
+    <t>Storage Gateway File Mode</t>
+  </si>
+  <si>
+    <t>Data Migration for large volume of data physically</t>
+  </si>
+  <si>
+    <t>Snowball, snowball edge,snowmobile</t>
+  </si>
+  <si>
+    <t>Data Transfer Service</t>
+  </si>
+  <si>
+    <t>On prem Infrastructure discovery service</t>
+  </si>
+  <si>
+    <t>App discovery Service(agent,agentless)</t>
+  </si>
+  <si>
+    <t>VM discovery</t>
+  </si>
+  <si>
+    <t>Migrate VMs</t>
+  </si>
+  <si>
+    <t>Server Migration Service, VM Export/Import</t>
+  </si>
+  <si>
+    <t>Managed NoSQL database</t>
+  </si>
+  <si>
+    <t>Dynamo DB. Public service</t>
+  </si>
+  <si>
+    <t>key value, document, wide column</t>
+  </si>
+  <si>
+    <t>AWS Athena. We can query the structured, semi structured,unstructured data in S3. Also supports other data sources via connectors</t>
+  </si>
+  <si>
+    <t>Managed Serverless Querying Service</t>
+  </si>
+  <si>
+    <t>BigQuery</t>
+  </si>
+  <si>
+    <t>Keys, Indexes</t>
+  </si>
+  <si>
+    <t>Global deployment</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Data expiry</t>
+  </si>
+  <si>
+    <t>Backups(/snapshots) &amp; Restore</t>
+  </si>
+  <si>
+    <t>Support for data change events</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Managed Elastic Search</t>
+  </si>
+  <si>
+    <t>AWS Elastic Search(not serverless)</t>
+  </si>
+  <si>
+    <t>Managed  Cache(in memory database)</t>
+  </si>
+  <si>
+    <t>Elastic Cache(Redis, memcached)</t>
+  </si>
+  <si>
+    <t>MemStore</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Managed Data warehouse</t>
+  </si>
+  <si>
+    <t>querying directly from objrct store</t>
+  </si>
+  <si>
+    <t>Redshift Spectrum</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>Federated Query support</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>highly available</t>
+  </si>
+  <si>
+    <t>No(Cluster in one AZ)</t>
+  </si>
+  <si>
+    <t>Resiliency</t>
+  </si>
+  <si>
+    <t>automated backups every 8 hours or 5GB data or manual snapshots. Option to take automated backups across regions</t>
+  </si>
+  <si>
+    <t>Managed Graph database</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>nothing native in GCP. But supports hosting Neo4J</t>
+  </si>
+  <si>
+    <t>Blockchain DB</t>
+  </si>
+  <si>
+    <t>AWS Quantum Ledger database. Serverless.</t>
+  </si>
+  <si>
+    <t>SCALING</t>
+  </si>
+  <si>
+    <t>Load Balancer as Managed Service</t>
+  </si>
+  <si>
+    <t>Layer 7</t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t>HTTP/HTTPS</t>
+  </si>
+  <si>
+    <t>TCP/TLS/UDP</t>
+  </si>
+  <si>
+    <t>internal or internet facing</t>
+  </si>
+  <si>
+    <t>global/regional</t>
+  </si>
+  <si>
+    <t>instance configuration</t>
+  </si>
+  <si>
+    <t>Launch configuration(legacy), Launch Template</t>
+  </si>
+  <si>
+    <t>auto scaling &amp; resilience</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>Managed Instance Group,</t>
+  </si>
+  <si>
+    <t>Manual, Scheduled, Dynamic(simple, Step, Target Tracking)</t>
+  </si>
+  <si>
+    <t>scaling types/poilcies</t>
+  </si>
+  <si>
+    <t>LB Health checks</t>
+  </si>
+  <si>
+    <t>auto scaling health checks</t>
+  </si>
+  <si>
+    <t>auto scaling life cycle hooks</t>
+  </si>
+  <si>
+    <t>instance checks(TCP),ELB health checks</t>
+  </si>
+  <si>
+    <t>SNI support</t>
+  </si>
+  <si>
+    <t>SSL Termination/Offload</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bridging(ALB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Both ALB and EC2 Instances need to have SSL Certs for the same domain,SSL connection gets decrypted at ALB and initiates a new SSL connection to backend.                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass Thru(NLB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> one single encrypted connection all the way to backend                          </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offload(ALB)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSL connection terminated at ALB and a plain http connection to backend.</t>
+    </r>
+  </si>
+  <si>
+    <t>session stickiness</t>
+  </si>
+  <si>
+    <t>ALB adds a cookie AWSALB cookie with expiry of 7 day</t>
+  </si>
+  <si>
+    <t>instance template</t>
+  </si>
+  <si>
+    <t>during scalein/out</t>
+  </si>
+  <si>
+    <t>ALB,CLB</t>
+  </si>
+  <si>
+    <t>NLB</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>EC2 instance check, ELB Health checks</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Deploys nodes in AZ(subnet),its scaled based on demand. Creates a DNS record pointing to these nodes.</t>
+  </si>
+  <si>
+    <t>ANALYTICS</t>
+  </si>
+  <si>
+    <t>Managed Streaming Service</t>
+  </si>
+  <si>
+    <t>pub/sub</t>
+  </si>
+  <si>
+    <t>Managed Stream processing</t>
+  </si>
+  <si>
+    <t>data proc</t>
+  </si>
+  <si>
+    <t>Kinesis Data streams</t>
+  </si>
+  <si>
+    <t>Managed Hadoop(EMR)</t>
+  </si>
+  <si>
+    <t>AWS EMR</t>
+  </si>
+  <si>
+    <t>Managed datawarehouse</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kinesis Firehose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.serverless. Near real time. Uses lamda for transformation. Can move data from kinesis data stream to ther destinations.        </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kinesis data analytics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Run SQL queries for analysys and can send results to Kinesis streams or firehose</t>
+    </r>
+  </si>
+  <si>
+    <t>dataflow.serverless. Used for ETL operatios. Uses Apache Beam framework.</t>
+  </si>
+  <si>
+    <t>pub/sub(both messageing and streaming framework)</t>
+  </si>
+  <si>
+    <t>Querying object store</t>
+  </si>
+  <si>
+    <t>Big Query</t>
+  </si>
+  <si>
+    <t>Federated Query support(inregration with other data sources)</t>
+  </si>
+  <si>
+    <t>Redshift. Not serverless.You have to provision. Column based.not HA by default.</t>
+  </si>
+  <si>
+    <t>BigQuery. Serverless. Column based. HA</t>
+  </si>
+  <si>
+    <t>Managed Batch Processing</t>
+  </si>
+  <si>
+    <t>Cloud Batch/Data Proc/Cloud Task</t>
+  </si>
+  <si>
+    <t>AWS Batch. Not severless.</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>AWS QuickSight</t>
+  </si>
+  <si>
+    <t>Looker</t>
+  </si>
+  <si>
+    <t>huge scale data transfer ro AWS</t>
+  </si>
+  <si>
+    <t>Data Sync. Agent running in onprem VM connects to datasync endpoint in AWS. Encryption in transit</t>
+  </si>
+  <si>
+    <t>Storage Transfer Service</t>
+  </si>
+  <si>
+    <t>AWS DMS(Either source/Target must be in AWS. Schema Conversion Tool allows to convert schemas</t>
+  </si>
+  <si>
+    <t>Container Repository</t>
+  </si>
+  <si>
+    <t>AWS ECR</t>
+  </si>
+  <si>
+    <t>Container Orchestration</t>
+  </si>
+  <si>
+    <t>ECS(EC2/Fargate mode(serverless), EKS</t>
+  </si>
+  <si>
+    <t>only captures metadata, not actual data. Not real time. Monitors can be attached at VPC(all ENIs), subnets(all ENIs) and ENI level. Can be sent to S3/CloudWatch Logs.</t>
+  </si>
+  <si>
+    <t>GKE(standard, autopilot), CloudRun(serverless)</t>
+  </si>
+  <si>
+    <t>Artifact Registry</t>
+  </si>
+  <si>
+    <t>Function as a Service</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Cloud Functions</t>
+  </si>
+  <si>
+    <t>CONTAINERS &amp; ORCHESTRATION &amp; Serverless</t>
+  </si>
+  <si>
+    <t>Resource Limit</t>
+  </si>
+  <si>
+    <t>Max Runtime</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Max Instances</t>
+  </si>
+  <si>
+    <t>custom runtime support</t>
+  </si>
+  <si>
+    <t>upload external code</t>
+  </si>
+  <si>
+    <t>128MB - 8GB memory, Disk</t>
+  </si>
+  <si>
+    <t>128MB - 10240MB, Disk 512MB-10240MB</t>
+  </si>
+  <si>
+    <t>15 Mins</t>
+  </si>
+  <si>
+    <t>access to resources inside VPC</t>
+  </si>
+  <si>
+    <t>Serverless VPC Access?</t>
+  </si>
+  <si>
+    <t>failed processing</t>
+  </si>
+  <si>
+    <t>DLQ or send to destination</t>
+  </si>
+  <si>
+    <t>Versioning support</t>
+  </si>
+  <si>
+    <t>Perfromance tweaks</t>
+  </si>
+  <si>
+    <t>pre allocate warm starts, temp space</t>
+  </si>
+  <si>
+    <t>CloudWatch Events, EventBridge</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Resource Policy for invocation,Execution Role for functions</t>
+  </si>
+  <si>
+    <t>Eventarc, cloud tasks</t>
+  </si>
+  <si>
+    <t>Event Driven Architecture</t>
+  </si>
+  <si>
+    <t>event delivery</t>
+  </si>
+  <si>
+    <t>Pub/Sub Messaging</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workflow </t>
+  </si>
+  <si>
+    <t>Step Functions</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Apigee, Cloud Endpoints</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,8 +2424,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,8 +2458,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1761,11 +2575,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1835,10 +2682,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1869,11 +2719,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,10 +3101,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -2225,7 +3117,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2240,7 +3132,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -2251,7 +3143,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2262,67 +3154,67 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
@@ -2330,306 +3222,306 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>173</v>
+      <c r="A12" s="28" t="s">
+        <v>169</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+      <c r="B18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="28"/>
-      <c r="B18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="174" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
-        <v>224</v>
+      <c r="A31" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -2637,18 +3529,18 @@
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="3"/>
@@ -2668,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE58B777-7D64-4756-9C6B-A004632FBACF}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2682,10 +3574,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>0</v>
@@ -2698,8 +3590,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>214</v>
+      <c r="A2" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>11</v>
@@ -2713,7 +3605,7 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
@@ -2726,7 +3618,7 @@
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
@@ -2739,20 +3631,20 @@
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2761,7 +3653,7 @@
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2774,364 +3666,364 @@
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
+      <c r="B13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="377" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>237</v>
-      </c>
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>206</v>
+        <v>517</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="D28" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="17" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="17" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
-        <v>82</v>
+      <c r="A34" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="37"/>
+      <c r="B35" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="26"/>
+        <v>260</v>
+      </c>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3"/>
@@ -3149,10 +4041,1924 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE7A14-C20F-4A44-AB27-64B505B2F270}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="4" width="25.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32"/>
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
+      <c r="B13" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="32"/>
+      <c r="B14" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
+      <c r="B18" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="39"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="44"/>
+      <c r="B23" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
+      <c r="B24" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="44"/>
+      <c r="B25" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="44"/>
+      <c r="B26" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="44"/>
+      <c r="B28" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+      <c r="A29" s="44"/>
+      <c r="B29" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="44"/>
+      <c r="B30" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="44"/>
+      <c r="B31" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="44"/>
+      <c r="B32" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="44"/>
+      <c r="B33" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="44"/>
+      <c r="B34" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="44"/>
+      <c r="B35" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="44"/>
+      <c r="B36" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="45"/>
+      <c r="B37" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="53"/>
+      <c r="B42" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="53"/>
+      <c r="B43" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="53"/>
+      <c r="B44" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="53"/>
+      <c r="B45" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="53"/>
+      <c r="B46" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="53"/>
+      <c r="B47" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="53"/>
+      <c r="B48" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="44"/>
+      <c r="B49" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="44"/>
+      <c r="B50" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="44"/>
+      <c r="B51" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="45"/>
+      <c r="B52" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:A52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384A6B1-8F7D-46FE-A692-1F47F3A15F28}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="25.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="25.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
+      <c r="B3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
+      <c r="B4" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="42"/>
+      <c r="B6" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="41"/>
+      <c r="B9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="41"/>
+      <c r="B10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="41"/>
+      <c r="B11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="41"/>
+      <c r="B12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="41"/>
+      <c r="B13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="41"/>
+      <c r="B14" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="41"/>
+      <c r="B16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="41"/>
+      <c r="B18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="41"/>
+      <c r="B19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="41"/>
+      <c r="B20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="41"/>
+      <c r="B21" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="41"/>
+      <c r="B22" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="41"/>
+      <c r="B23" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="41"/>
+      <c r="B24" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="41"/>
+      <c r="B25" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="41"/>
+      <c r="B26" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="41"/>
+      <c r="B27" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="41"/>
+      <c r="B28" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="41"/>
+      <c r="B29" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="41"/>
+      <c r="B30" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="41"/>
+      <c r="B31" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="41"/>
+      <c r="B32" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="41"/>
+      <c r="B33" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
+      <c r="B34" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="41"/>
+      <c r="B35" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="41"/>
+      <c r="B36" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F845B1-9A30-46C5-8FCA-426364CEBE3C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A41:E41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C68364E-D70E-42AC-A562-8E73B5101943}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3160,12 +5966,12 @@
     <col min="1" max="5" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>0</v>
@@ -3178,611 +5984,121 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="22"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F384A6B1-8F7D-46FE-A692-1F47F3A15F28}">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="25.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
-      <c r="B6" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
-      <c r="B15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
-      <c r="B23" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
-      <c r="B24" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
-      <c r="B28" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
-      <c r="B29" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="E34" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214E1C9B-8A0D-4104-837C-223257E25959}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3792,10 +6108,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -3808,24 +6124,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>68</v>
+      <c r="A2" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -3834,241 +6150,241 @@
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="17"/>
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="23"/>
       <c r="C20" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="23"/>
       <c r="C21" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="23"/>
       <c r="C22" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="23"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -4082,25 +6398,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3C64E2-4AB3-4494-A34E-041C6DF619BB}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -4113,91 +6432,118 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>142</v>
+      <c r="A2" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C7" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17" t="s">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="22"/>
     </row>
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>